--- a/5조_품앗이_PSP.xlsx
+++ b/5조_품앗이_PSP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195378C7-9836-43C0-952E-3C68F818A9EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C1B9E0-891C-4474-8561-71520D54EC2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7950" yWindow="1305" windowWidth="15660" windowHeight="13545" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1537,6 +1537,497 @@
         <charset val="129"/>
       </rPr>
       <t>수정</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃헙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃헙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>깃헙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직접</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정하지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>칸에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계산되어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정됩니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*Activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항목일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가해주시고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Interrupt Time, Delta Time, Total </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>칸에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검정색으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뜨면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭해서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아래로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드래그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해주시면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채워집니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1669,7 +2160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1722,6 +2213,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - 강조색6" xfId="3" builtinId="50"/>
@@ -2109,20 +2601,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2134,10 +2626,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -2149,8 +2641,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="11.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -2170,7 +2662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43713</v>
       </c>
@@ -2191,7 +2683,7 @@
       </c>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>43713</v>
       </c>
@@ -2212,7 +2704,7 @@
       </c>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43714</v>
       </c>
@@ -2232,7 +2724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43715</v>
       </c>
@@ -2252,7 +2744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>43717</v>
       </c>
@@ -2272,7 +2764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2280,7 +2772,7 @@
       <c r="E11" s="18"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2288,7 +2780,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2296,7 +2788,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2304,7 +2796,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2312,7 +2804,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2320,7 +2812,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2328,7 +2820,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2336,7 +2828,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2344,7 +2836,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2352,7 +2844,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2360,7 +2852,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2368,7 +2860,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2376,7 +2868,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2384,7 +2876,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2392,7 +2884,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2400,7 +2892,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2408,7 +2900,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2416,7 +2908,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2424,7 +2916,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2432,7 +2924,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2440,7 +2932,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2448,7 +2940,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2456,7 +2948,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2464,7 +2956,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2472,7 +2964,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2480,7 +2972,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2488,7 +2980,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2515,14 +3007,14 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2534,12 +3026,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -2551,11 +3043,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -2575,7 +3067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2583,7 +3075,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2591,7 +3083,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2599,7 +3091,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2607,7 +3099,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2615,7 +3107,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2623,7 +3115,7 @@
       <c r="E11" s="18"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2631,7 +3123,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2639,7 +3131,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2647,7 +3139,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2655,7 +3147,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2663,7 +3155,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2671,7 +3163,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2679,7 +3171,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2687,7 +3179,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2695,7 +3187,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2703,7 +3195,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2711,7 +3203,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2719,7 +3211,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2727,7 +3219,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2735,7 +3227,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2743,7 +3235,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2751,7 +3243,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2759,7 +3251,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2767,7 +3259,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2775,7 +3267,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2783,7 +3275,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2791,7 +3283,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2799,7 +3291,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2807,7 +3299,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2815,7 +3307,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2823,7 +3315,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2831,7 +3323,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2858,13 +3350,13 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2876,12 +3368,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -2893,11 +3385,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -2917,7 +3409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2925,7 +3417,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2933,7 +3425,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2941,7 +3433,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2949,7 +3441,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2957,7 +3449,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2965,7 +3457,7 @@
       <c r="E11" s="18"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2973,7 +3465,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2981,7 +3473,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2989,7 +3481,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2997,7 +3489,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3005,7 +3497,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3013,7 +3505,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3021,7 +3513,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3029,7 +3521,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3037,7 +3529,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3045,7 +3537,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3053,7 +3545,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3061,7 +3553,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3069,7 +3561,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3077,7 +3569,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3085,7 +3577,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3093,7 +3585,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3101,7 +3593,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3109,7 +3601,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3117,7 +3609,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3125,7 +3617,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3133,7 +3625,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3141,7 +3633,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3149,7 +3641,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3157,7 +3649,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3165,7 +3657,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3173,7 +3665,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3194,19 +3686,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3218,12 +3710,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -3235,11 +3727,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3259,39 +3751,75 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>43713</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="D6" s="9">
+        <v>30</v>
+      </c>
+      <c r="E6" s="17">
+        <v>90</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>43714</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>120</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>43715</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>30</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3299,15 +3827,15 @@
       <c r="E10" s="17"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3315,7 +3843,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3323,7 +3851,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3331,7 +3859,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3339,15 +3867,15 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="9"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3355,23 +3883,23 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="9"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="9"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3379,15 +3907,15 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="9"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3395,7 +3923,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3403,7 +3931,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3411,7 +3939,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3419,7 +3947,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3427,7 +3955,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3435,7 +3963,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3443,7 +3971,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3451,7 +3979,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3459,7 +3987,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3467,7 +3995,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3475,7 +4003,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3483,45 +4011,29 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3542,13 +4054,13 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="35.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -3560,12 +4072,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -3577,11 +4089,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3601,7 +4113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3609,7 +4121,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3617,7 +4129,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3625,7 +4137,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3633,7 +4145,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3641,7 +4153,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3649,7 +4161,7 @@
       <c r="E11" s="18"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3657,7 +4169,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3665,7 +4177,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3673,7 +4185,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3681,7 +4193,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3689,7 +4201,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3697,7 +4209,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3705,7 +4217,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3713,7 +4225,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3721,7 +4233,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3729,7 +4241,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3737,7 +4249,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3745,7 +4257,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3753,7 +4265,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3761,7 +4273,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3769,7 +4281,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3777,7 +4289,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3785,7 +4297,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3793,7 +4305,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3801,7 +4313,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3809,7 +4321,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3817,7 +4329,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3825,7 +4337,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3833,7 +4345,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3841,7 +4353,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3849,7 +4361,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3857,7 +4369,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3881,16 +4393,16 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="39.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3902,12 +4414,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -3919,11 +4431,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3943,7 +4455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3951,7 +4463,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3959,7 +4471,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3967,7 +4479,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3975,7 +4487,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3983,7 +4495,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3991,7 +4503,7 @@
       <c r="E11" s="18"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3999,7 +4511,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4007,7 +4519,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4015,7 +4527,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4023,7 +4535,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4031,7 +4543,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4039,7 +4551,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4047,7 +4559,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4055,7 +4567,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4063,7 +4575,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4071,7 +4583,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4079,7 +4591,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4087,7 +4599,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4095,7 +4607,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4103,7 +4615,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4111,7 +4623,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4119,7 +4631,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4127,7 +4639,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4135,7 +4647,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4143,7 +4655,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4151,7 +4663,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4159,7 +4671,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4167,7 +4679,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4175,7 +4687,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4183,7 +4695,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4191,7 +4703,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4199,7 +4711,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4220,134 +4732,167 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123F5593-3332-40B3-A0B0-990DC737C25E}">
-  <dimension ref="A3:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.45">
+      <c r="A4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="25">
-        <f>SUM(김혜민!D6)</f>
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <f>SUM(김혜민!E6)</f>
-        <v>90</v>
-      </c>
-      <c r="D4" s="25">
-        <f>C4-B4</f>
+      <c r="B5" s="25">
+        <f>SUMIF(김혜민!F:F,TOTAL!A5,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A5,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A5,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A5,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A5,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A5,탁재인!D:D)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="25">
-        <f>SUM(김혜민!D7)</f>
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <f>SUM(김혜민!E7)</f>
-        <v>20</v>
+      <c r="C5" s="25">
+        <f>SUMIF(김혜민!F:F,TOTAL!A5,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A5,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A5,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A5,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A5,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A5,탁재인!E:E)</f>
+        <v>180</v>
       </c>
       <c r="D5" s="25">
         <f>C5-B5</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="25">
+        <f>SUMIF(김혜민!F:F,TOTAL!A6,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A6,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A6,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A6,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A6,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A6,탁재인!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="25">
+        <f>SUMIF(김혜민!F:F,TOTAL!A6,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A6,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A6,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A6,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A6,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A6,탁재인!E:E)</f>
         <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="25">
-        <f>SUM(김혜민!D8)</f>
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <f>SUM(김혜민!E8)</f>
-        <v>120</v>
       </c>
       <c r="D6" s="25">
         <f>C6-B6</f>
-        <v>120</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="25">
-        <f>SUM(김혜민!D9)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A7,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A7,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A7,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A7,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!D:D)</f>
         <v>0</v>
       </c>
-      <c r="C7">
-        <f>SUM(김혜민!E9)</f>
-        <v>30</v>
+      <c r="C7" s="25">
+        <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A7,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A7,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A7,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A7,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!E:E)</f>
+        <v>240</v>
       </c>
       <c r="D7" s="25">
         <f>C7-B7</f>
+        <v>240</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="25">
+        <f>SUMIF(김혜민!F:F,TOTAL!A8,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A8,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A8,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A8,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A8,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A8,탁재인!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="25">
+        <f>SUMIF(김혜민!F:F,TOTAL!A8,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A8,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A8,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A8,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A8,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A8,탁재인!E:E)</f>
         <v>30</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="25">
-        <f>SUM(김혜민!D10)</f>
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <f>SUM(김혜민!E10)</f>
-        <v>150</v>
       </c>
       <c r="D8" s="25">
         <f>C8-B8</f>
+        <v>30</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="25">
+        <f>SUMIF(김혜민!F:F,TOTAL!A9,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A9,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A9,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A9,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A9,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A9,탁재인!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="25">
+        <f>SUMIF(김혜민!F:F,TOTAL!A9,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A9,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A9,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A9,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A9,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A9,탁재인!E:E)</f>
         <v>150</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D9" s="25">
+        <f>C9-B9</f>
+        <v>150</v>
+      </c>
+      <c r="E9" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="25">
+        <f>SUMIF(김혜민!F:F,TOTAL!A10,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A10,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A10,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A10,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A10,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A10,탁재인!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="25">
+        <f>SUMIF(김혜민!F:F,TOTAL!A10,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A10,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A10,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A10,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A10,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A10,탁재인!E:E)</f>
+        <v>30</v>
+      </c>
+      <c r="D10" s="25">
+        <f>C10-B10</f>
+        <v>30</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
